--- a/biology/Botanique/Clathre_rouge/Clathre_rouge.xlsx
+++ b/biology/Botanique/Clathre_rouge/Clathre_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clathrus ruber, le clathre rouge, aussi appelé clathre grillagé, cœur de sorcière, ou cage grillagée, est une espèce de champignons du genre Clathrus, dans la famille des Phallaceae. Il se présente sous la forme d'une lanterne grillagée aux mailles polygonales, irrégulières, allongées, rouge-corail puis orangées.
 Le clathre rouge était également utilisé au Moyen Âge par les sorciers et les jeteurs de sort. Il n'est pas mortel mais immangeable et nauséabond.
@@ -512,10 +524,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clathrus cancellatus
-Clathrus volvaceus[1]</t>
+Clathrus volvaceus</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Noms français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Clathre rouge
 Clathre grillagé
@@ -577,11 +593,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On découvre le clathre rouge le plus souvent sur sols acides, dans les endroits dégagés ou aérés. Il affectionne les champs, les terrains incultes et les bords des chemins. On le trouve du printemps à l'automne (novembre en Corse), très souvent isolé. Il est fréquent dans le sud de la France, Corse, littoral atlantique, où on le rencontre presque toute l'année plus particulièrement de juin à septembre, sur feuilles, copeaux de bois, sciure, ou sous divers feuillus.
 Il apparait en surface comme un œuf, légèrement marqué de sillons. Éclos, il montre son réceptacle, une structure en cage grillagée. Ce réceptacle (ou chapeau) forme une voûte ovoïde en grillage qui lui a valu son appellation. L'intérieur est visqueux, granuleux, à odeur fétide pestilentielle perceptible à plusieurs mètres, telle celle du satyre puant.
-Ses spores se dispersent par la liquéfaction du carpophore[2].
+Ses spores se dispersent par la liquéfaction du carpophore.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Clathre rouge œuf ouvert sans la grille (à gauche), Clathre rouge œuf entier non éclos (à droite)
@@ -646,10 +666,12 @@
           <t>Intérêt culinaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa toxicité n'est pas démontrée. Selon André Marchand, l'œuf une fois débarrassé de sa partie gélatineuse, peut être consommé ; il présenterait une saveur et une odeur de radis.
-Toutefois, et quoique « belle et singulière plante »[2], son aspect en fait un champignon délaissé des ramasseurs de champignons. 
+Toutefois, et quoique « belle et singulière plante », son aspect en fait un champignon délaissé des ramasseurs de champignons. 
 </t>
         </is>
       </c>
